--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KRISHNENTHU\IdeaProjects\demowebshop\src\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KRISHNENTHU\IdeaProjects\demowebshop\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4261465-2C49-4A6D-9EB6-B4DB358E777E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7642E9-2A2E-4048-89C7-77E7DE9800E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
